--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Neraca" sheetId="1" r:id="rId1"/>
     <sheet name="Laba_Rugi" sheetId="2" r:id="rId2"/>
+    <sheet name="analisa_LK" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Kas dan setara kas</t>
   </si>
@@ -249,6 +250,117 @@
   </si>
   <si>
     <t>Untuk Tahun yang Berakhir pada Tanggal 31 Desember 2015</t>
+  </si>
+  <si>
+    <t>current ratio</t>
+  </si>
+  <si>
+    <t>hutang lancar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aset lancar </t>
+  </si>
+  <si>
+    <t>cash ratio</t>
+  </si>
+  <si>
+    <t>kas + efek</t>
+  </si>
+  <si>
+    <t>quick ratio</t>
+  </si>
+  <si>
+    <t>kas + efek + piutang</t>
+  </si>
+  <si>
+    <t>acid test ratio</t>
+  </si>
+  <si>
+    <t>total debt to equity ratio</t>
+  </si>
+  <si>
+    <t>total debt to total capital aset</t>
+  </si>
+  <si>
+    <t>long term debt to equity</t>
+  </si>
+  <si>
+    <t>times interest earned ratio</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>modal sendiri</t>
+  </si>
+  <si>
+    <t>total aset</t>
+  </si>
+  <si>
+    <t>jml. modal sendiri</t>
+  </si>
+  <si>
+    <t>htg. lancar + htg. jk. panjang</t>
+  </si>
+  <si>
+    <t>htg. lancar + htg. Jk. panjang</t>
+  </si>
+  <si>
+    <t>bunga hutang jk. panjang</t>
+  </si>
+  <si>
+    <t>total assets turnover</t>
+  </si>
+  <si>
+    <t>penjualan neto</t>
+  </si>
+  <si>
+    <t>perputaran piutang</t>
+  </si>
+  <si>
+    <t>penjualan</t>
+  </si>
+  <si>
+    <t>rata-rata piutang</t>
+  </si>
+  <si>
+    <t>piutang rata-rata x 360</t>
+  </si>
+  <si>
+    <t>penjualan kredit</t>
+  </si>
+  <si>
+    <t>total aktiva</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>net earning power ratio</t>
+  </si>
+  <si>
+    <t>earning power of total investment</t>
+  </si>
+  <si>
+    <t>(rate of return on investment)</t>
+  </si>
+  <si>
+    <t>(rate of return on total aset)</t>
+  </si>
+  <si>
+    <t>average collection periode</t>
+  </si>
+  <si>
+    <t>rate of return for owner</t>
+  </si>
+  <si>
+    <t>(rate of return on net worth)</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
 </sst>
 </file>
@@ -299,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -316,12 +428,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -332,10 +453,26 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -641,434 +778,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="3.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="3.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>32366700</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>4035526</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2">
-        <v>11500000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>27067308</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>22014249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>4469314</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2">
-        <v>111174587</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>11609576</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>1405041</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>25544204</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>1285770</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>6597713</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2326665</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>5801521</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>282546591</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2">
-        <v>11421751</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>314628156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>57204666</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>50401923</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>61733247</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1671438</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>60030326</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>40229242</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2">
-        <v>47292872</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>14785305</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>7591059</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <f>SUM(I9:I17)</f>
-        <v>210931517</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>6283536</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1">
-        <f>SUM(D8:D18)</f>
+      <c r="E20" s="1">
+        <f>SUM(E8:E18)</f>
         <v>521210881</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="F20" s="1">
+        <f>SUM(F8:F18)</f>
+        <v>490875888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="2">
         <v>234746191</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="2">
-        <v>17658367</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <v>245225987</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="2">
-        <v>19480882</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>23053003</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>25029782</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>16247899</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="1">
-        <f>SUM(I23:I24)</f>
-        <v>37139249</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="2">
+        <v>13759430</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
-        <f>SUM(D23:D26)</f>
+      <c r="E28" s="1">
+        <f>SUM(E23:E26)</f>
         <v>274047093</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="1">
+        <f>SUM(F23:F26)</f>
+        <v>284015199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E20+E28</f>
+        <v>795257974</v>
+      </c>
+      <c r="F30" s="16">
+        <f>F20+F28</f>
+        <v>774891087</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11500000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>49500000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2">
+        <v>111174587</v>
+      </c>
+      <c r="F37" s="2">
+        <v>138891923</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>25544204</v>
+      </c>
+      <c r="F38" s="2">
+        <v>66577683</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2326665</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6782530</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2">
+        <v>11421751</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6125916</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1671438</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6255889</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2">
+        <v>47292872</v>
+      </c>
+      <c r="F43" s="2">
+        <v>42099694</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="1">
+        <f>SUM(E35:E43)</f>
+        <v>210931517</v>
+      </c>
+      <c r="F45" s="1">
+        <f>SUM(F35:F43)</f>
+        <v>316233635</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2">
+        <v>17658367</v>
+      </c>
+      <c r="F49" s="2">
+        <v>13355657</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="2">
+        <v>19480882</v>
+      </c>
+      <c r="F50" s="2">
+        <v>19704199</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="1">
+        <f>SUM(E49:E50)</f>
+        <v>37139249</v>
+      </c>
+      <c r="F52" s="1">
+        <f>SUM(F49:F50)</f>
+        <v>33059856</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="1">
-        <f>I19+I26</f>
+      <c r="E54" s="1">
+        <f>E45+E52</f>
         <v>248070766</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F30" s="1" t="s">
+      <c r="F54" s="1">
+        <f>F45+F52</f>
+        <v>349293491</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F31" s="2" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G32" s="2" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G33" s="2" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="2" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="2" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="2">
+      <c r="E61" s="2">
         <v>13000000</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F36" s="2" t="s">
+      <c r="F61" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="2" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="2">
+      <c r="E63" s="2">
         <v>26000</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G38" s="2" t="s">
+      <c r="F63" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="2">
+      <c r="E64" s="2">
         <v>538768040</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F39" s="2" t="s">
+      <c r="F64" s="2">
+        <v>416564594</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="2" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H41" s="2" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="2">
+      <c r="E67" s="2">
         <v>-4606832</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F43" s="1" t="s">
+      <c r="F67" s="2">
+        <v>-3982998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="1">
-        <f>SUM(I31:I41)</f>
+      <c r="E69" s="1">
+        <f>SUM(E57:E67)</f>
         <v>547187208</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1">
-        <f>D20+D28</f>
+      <c r="F69" s="1">
+        <f>SUM(F57:F67)</f>
+        <v>425597596</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="16">
+        <f>E54+E69</f>
         <v>795257974</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="1">
-        <f>I28+I43</f>
-        <v>795257974</v>
+      <c r="F71" s="16">
+        <f>F54+F69</f>
+        <v>774891087</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="4" t="str">
+        <f>IF(E71=E30,"balanced","unbalanced")</f>
+        <v>balanced</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f>IF(F71=F30,"balanced","unbalanced")</f>
+        <v>balanced</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E75" s="2">
+        <f>SUM(E10:E13)</f>
+        <v>39539376</v>
+      </c>
+      <c r="F75" s="2">
+        <f>SUM(F10:F13)</f>
+        <v>40711116</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="2">
+        <f>(E75+F75)/2</f>
+        <v>40125246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1078,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E35"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1090,65 +1390,77 @@
     <col min="2" max="3" width="2.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="str">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="str">
         <f>Neraca!B1</f>
         <v>PT. SEPATU BATA Tbk.</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="5">
         <v>1028850578</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>1008727515</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="5">
         <v>-622099195</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>-558227929</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>57</v>
       </c>
@@ -1156,40 +1468,56 @@
         <f>E6+E7</f>
         <v>406751383</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="6">
+        <f>F6+F7</f>
+        <v>450499586</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="5">
         <v>-250450762</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>-235948633</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="5">
         <v>-119760966</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>-110348811</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="5">
         <v>121027323</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="5">
         <v>-2671796</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>-458932</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>61</v>
       </c>
@@ -1197,24 +1525,34 @@
         <f>SUM(E8:E13)</f>
         <v>154895182</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="6">
+        <f>SUM(F8:F13)</f>
+        <v>103833210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="5">
         <v>115692</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>87086</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="5">
         <v>-6207256</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>-4374404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
@@ -1222,34 +1560,50 @@
         <f>E14+E16+E17</f>
         <v>148803618</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="6">
+        <f>F14+F16+F17</f>
+        <v>99545892</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="5">
         <v>-6359375</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <f>E18+E21</f>
         <v>142444243</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="6">
+        <f>F18+F21</f>
+        <v>99545892</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="5">
         <v>-12924797</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>-28299463</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1257,34 +1611,44 @@
         <f>E22+E24</f>
         <v>129519446</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="6">
+        <f>F22+F24</f>
+        <v>71246429</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="5">
         <v>-831779</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>-1988325</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="5">
         <v>207945</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>497081</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -1292,29 +1656,381 @@
         <f>E25+E29+E30</f>
         <v>128895612</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="6">
+        <f>F25+F29+F30</f>
+        <v>69755185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="7">
         <v>99.63</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="7">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="13">
+        <f>Neraca!E20</f>
+        <v>521210881</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2/F3</f>
+        <v>2.4709957450313129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="12">
+        <f>Neraca!E45</f>
+        <v>210931517</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="13">
+        <f>Neraca!E8</f>
+        <v>32366700</v>
+      </c>
+      <c r="G5" s="11">
+        <f>F5/F6</f>
+        <v>0.15344648566671998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="12">
+        <f>F3</f>
+        <v>210931517</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="13">
+        <f>Neraca!E8+Neraca!E10+Neraca!E11+Neraca!E12+Neraca!E13</f>
+        <v>71906076</v>
+      </c>
+      <c r="G8" s="11">
+        <f>F8/F9</f>
+        <v>0.34089773317280037</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="12">
+        <f>F6</f>
+        <v>210931517</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="13">
+        <f>Neraca!E45+Neraca!E52</f>
+        <v>248070766</v>
+      </c>
+      <c r="G11" s="11">
+        <f>F11/F12</f>
+        <v>0.46041854137807464</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="12">
+        <f>Neraca!E63+Neraca!E64</f>
+        <v>538794040</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="13">
+        <f>Neraca!E54</f>
+        <v>248070766</v>
+      </c>
+      <c r="G14" s="11">
+        <f>F14/F15</f>
+        <v>0.31193747703308161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="12">
+        <f>Neraca!E30</f>
+        <v>795257974</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="13">
+        <f>Neraca!E52</f>
+        <v>37139249</v>
+      </c>
+      <c r="G17" s="11">
+        <f>F17/F18</f>
+        <v>6.8930326326549565E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="12">
+        <f>F12</f>
+        <v>538794040</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="13">
+        <f>Laba_Rugi!E14</f>
+        <v>154895182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="13">
+        <f>Laba_Rugi!E6</f>
+        <v>1028850578</v>
+      </c>
+      <c r="G23" s="11">
+        <f>F23/F24</f>
+        <v>1.2937318601473087</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="12">
+        <f>Neraca!E30</f>
+        <v>795257974</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="13">
+        <f>Laba_Rugi!E6</f>
+        <v>1028850578</v>
+      </c>
+      <c r="G26" s="11">
+        <f>F26/F27</f>
+        <v>25.64097869954492</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="12">
+        <f>(SUM(Neraca!F10:F13)+SUM(Neraca!E10:E13))/2</f>
+        <v>40125246</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="13">
+        <f>F27*360</f>
+        <v>14445088560</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="13">
+        <f>F20</f>
+        <v>154895182</v>
+      </c>
+      <c r="G32" s="11">
+        <f>F32/F33</f>
+        <v>0.19477350377375782</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="12">
+        <f>F15</f>
+        <v>795257974</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="13">
+        <f>Laba_Rugi!E32</f>
+        <v>128895612</v>
+      </c>
+      <c r="G35" s="11">
+        <f>F35/F36</f>
+        <v>0.16208025095514478</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="12">
+        <f>F33</f>
+        <v>795257974</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="13">
+        <f>F35</f>
+        <v>128895612</v>
+      </c>
+      <c r="G38" s="11">
+        <f>F38/F39</f>
+        <v>0.23922984003312286</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="12">
+        <f>F18</f>
+        <v>538794040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>Kas dan setara kas</t>
   </si>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>net profit margin</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>NPM x TATO</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>(1 - Debt Ratio)</t>
+  </si>
+  <si>
+    <t>0.13 x 1.29</t>
   </si>
 </sst>
 </file>
@@ -372,7 +390,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +415,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -442,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -454,12 +480,6 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -472,6 +492,20 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -797,49 +831,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1041,11 +1075,11 @@
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <f>E20+E28</f>
         <v>795257974</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <f>F20+F28</f>
         <v>774891087</v>
       </c>
@@ -1327,11 +1361,11 @@
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <f>E54+E69</f>
         <v>795257974</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="14">
         <f>F54+F69</f>
         <v>774891087</v>
       </c>
@@ -1380,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1395,41 +1429,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="17" t="str">
         <f>Neraca!B1</f>
         <v>PT. SEPATU BATA Tbk.</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
@@ -1692,84 +1726,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="6" max="6" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <f>Neraca!E20</f>
         <v>521210881</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="21">
         <f>F2/F3</f>
         <v>2.4709957450313129</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <f>Neraca!E45</f>
         <v>210931517</v>
       </c>
+      <c r="G3" s="21"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f>Neraca!E8</f>
         <v>32366700</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="21">
         <f>F5/F6</f>
         <v>0.15344648566671998</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f>F3</f>
         <v>210931517</v>
       </c>
+      <c r="G6" s="21"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f>Neraca!E8+Neraca!E10+Neraca!E11+Neraca!E12+Neraca!E13</f>
         <v>71906076</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="20">
         <f>F8/F9</f>
         <v>0.34089773317280037</v>
       </c>
@@ -1778,10 +1814,10 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f>F6</f>
         <v>210931517</v>
       </c>
@@ -1790,23 +1826,23 @@
       <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f>Neraca!E45+Neraca!E52</f>
         <v>248070766</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="20">
         <f>F11/F12</f>
         <v>0.46041854137807464</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f>Neraca!E63+Neraca!E64</f>
         <v>538794040</v>
       </c>
@@ -1815,23 +1851,23 @@
       <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <f>Neraca!E54</f>
         <v>248070766</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="20">
         <f>F14/F15</f>
         <v>0.31193747703308161</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <f>Neraca!E30</f>
         <v>795257974</v>
       </c>
@@ -1840,23 +1876,23 @@
       <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f>Neraca!E52</f>
         <v>37139249</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="20">
         <f>F17/F18</f>
         <v>6.8930326326549565E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <f>F12</f>
         <v>538794040</v>
       </c>
@@ -1865,16 +1901,16 @@
       <c r="B20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="11">
         <f>Laba_Rugi!E14</f>
         <v>154895182</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1882,23 +1918,23 @@
       <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="20">
         <f>F23/F24</f>
         <v>1.2937318601473087</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f>Neraca!E30</f>
         <v>795257974</v>
       </c>
@@ -1907,23 +1943,23 @@
       <c r="B26" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="11">
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="20">
         <f>F26/F27</f>
         <v>25.64097869954492</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <f>(SUM(Neraca!F10:F13)+SUM(Neraca!E10:E13))/2</f>
         <v>40125246</v>
       </c>
@@ -1932,16 +1968,16 @@
       <c r="B29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <f>F27*360</f>
         <v>14445088560</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1949,14 +1985,14 @@
       <c r="B32" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <f>F20</f>
         <v>154895182</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="20">
         <f>F32/F33</f>
         <v>0.19477350377375782</v>
       </c>
@@ -1965,10 +2001,10 @@
       <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="10">
         <f>F15</f>
         <v>795257974</v>
       </c>
@@ -1977,14 +2013,14 @@
       <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <f>Laba_Rugi!E32</f>
         <v>128895612</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="20">
         <f>F35/F36</f>
         <v>0.16208025095514478</v>
       </c>
@@ -1993,10 +2029,10 @@
       <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="10">
         <f>F33</f>
         <v>795257974</v>
       </c>
@@ -2005,14 +2041,14 @@
       <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <f>F35</f>
         <v>128895612</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="20">
         <f>F38/F39</f>
         <v>0.23922984003312286</v>
       </c>
@@ -2021,12 +2057,77 @@
       <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="10">
         <f>F18</f>
         <v>538794040</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="11">
+        <f>F38</f>
+        <v>128895612</v>
+      </c>
+      <c r="G41" s="20">
+        <f>F41/F42</f>
+        <v>0.12528117761333463</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="10">
+        <f>F23</f>
+        <v>1028850578</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="20">
+        <f>G41*G23</f>
+        <v>0.16208025095514478</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="18">
+        <f>G44</f>
+        <v>0.16208025095514478</v>
+      </c>
+      <c r="G46" s="20">
+        <f>(F46/F47)</f>
+        <v>0.23556035323106458</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="9">
+        <f>(1-(Neraca!E54/Neraca!E30))</f>
+        <v>0.68806252296691839</v>
       </c>
     </row>
   </sheetData>

--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Neraca" sheetId="1" r:id="rId1"/>
@@ -493,12 +493,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -506,6 +500,12 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -831,40 +831,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1429,41 +1429,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="21" t="str">
         <f>Neraca!B1</f>
         <v>PT. SEPATU BATA Tbk.</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
@@ -1728,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1739,7 @@
     <col min="4" max="4" width="26.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="7" max="7" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -1753,7 +1753,7 @@
         <f>Neraca!E20</f>
         <v>521210881</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <f>F2/F3</f>
         <v>2.4709957450313129</v>
       </c>
@@ -1766,7 +1766,7 @@
         <f>Neraca!E45</f>
         <v>210931517</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1779,7 +1779,7 @@
         <f>Neraca!E8</f>
         <v>32366700</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <f>F5/F6</f>
         <v>0.15344648566671998</v>
       </c>
@@ -1792,7 +1792,7 @@
         <f>F3</f>
         <v>210931517</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1805,7 +1805,7 @@
         <f>Neraca!E8+Neraca!E10+Neraca!E11+Neraca!E12+Neraca!E13</f>
         <v>71906076</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <f>F8/F9</f>
         <v>0.34089773317280037</v>
       </c>
@@ -1833,7 +1833,7 @@
         <f>Neraca!E45+Neraca!E52</f>
         <v>248070766</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <f>F11/F12</f>
         <v>0.46041854137807464</v>
       </c>
@@ -1858,7 +1858,7 @@
         <f>Neraca!E54</f>
         <v>248070766</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <f>F14/F15</f>
         <v>0.31193747703308161</v>
       </c>
@@ -1883,7 +1883,7 @@
         <f>Neraca!E52</f>
         <v>37139249</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <f>F17/F18</f>
         <v>6.8930326326549565E-2</v>
       </c>
@@ -1908,11 +1908,19 @@
         <f>Laba_Rugi!E14</f>
         <v>154895182</v>
       </c>
+      <c r="G20" s="18">
+        <f>F20/F21</f>
+        <v>-186.22155885156994</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
         <v>96</v>
       </c>
+      <c r="F21" s="10">
+        <f>Laba_Rugi!E29</f>
+        <v>-831779</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1925,7 +1933,7 @@
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <f>F23/F24</f>
         <v>1.2937318601473087</v>
       </c>
@@ -1950,7 +1958,7 @@
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <f>F26/F27</f>
         <v>25.64097869954492</v>
       </c>
@@ -1992,7 +2000,7 @@
         <f>F20</f>
         <v>154895182</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <f>F32/F33</f>
         <v>0.19477350377375782</v>
       </c>
@@ -2020,7 +2028,7 @@
         <f>Laba_Rugi!E32</f>
         <v>128895612</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <f>F35/F36</f>
         <v>0.16208025095514478</v>
       </c>
@@ -2048,7 +2056,7 @@
         <f>F35</f>
         <v>128895612</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="18">
         <f>F38/F39</f>
         <v>0.23922984003312286</v>
       </c>
@@ -2076,7 +2084,7 @@
         <f>F38</f>
         <v>128895612</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="18">
         <f>F41/F42</f>
         <v>0.12528117761333463</v>
       </c>
@@ -2097,10 +2105,10 @@
       <c r="D44" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <f>G41*G23</f>
         <v>0.16208025095514478</v>
       </c>
@@ -2112,11 +2120,11 @@
       <c r="D46" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="16">
         <f>G44</f>
         <v>0.16208025095514478</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <f>(F46/F47)</f>
         <v>0.23556035323106458</v>
       </c>

--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1729,7 @@
   <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G20" s="18">
         <f>F20/F21</f>
-        <v>-186.22155885156994</v>
+        <v>24.953889770294637</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1918,8 +1918,8 @@
         <v>96</v>
       </c>
       <c r="F21" s="10">
-        <f>Laba_Rugi!E29</f>
-        <v>-831779</v>
+        <f>-Laba_Rugi!E17</f>
+        <v>6207256</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1983,10 +1983,18 @@
         <f>F27*360</f>
         <v>14445088560</v>
       </c>
+      <c r="G29" s="18">
+        <f>F29/F30</f>
+        <v>14.04002570332424</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>103</v>
+      </c>
+      <c r="F30" s="10">
+        <f>Laba_Rugi!E6</f>
+        <v>1028850578</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">

--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>Kas dan setara kas</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>0.13 x 1.29</t>
+  </si>
+  <si>
+    <t>working capital to total assets ratio</t>
+  </si>
+  <si>
+    <t>aset lancar - htg. lancar</t>
+  </si>
+  <si>
+    <t>jml. aset lancar</t>
   </si>
 </sst>
 </file>
@@ -814,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -1726,428 +1735,454 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="18"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E1" s="11">
         <f>Neraca!E20</f>
         <v>521210881</v>
       </c>
-      <c r="G2" s="19">
-        <f>F2/F3</f>
+      <c r="F1" s="19">
+        <f>E1/E2</f>
         <v>2.4709957450313129</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E2" s="10">
         <f>Neraca!E45</f>
         <v>210931517</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E4" s="11">
         <f>Neraca!E8</f>
         <v>32366700</v>
       </c>
-      <c r="G5" s="19">
-        <f>F5/F6</f>
+      <c r="F4" s="19">
+        <f>E4/E5</f>
         <v>0.15344648566671998</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="10">
-        <f>F3</f>
+      <c r="E5" s="10">
+        <f>E2</f>
         <v>210931517</v>
       </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="11">
+      <c r="E7" s="11">
         <f>Neraca!E8+Neraca!E10+Neraca!E11+Neraca!E12+Neraca!E13</f>
         <v>71906076</v>
       </c>
-      <c r="G8" s="18">
-        <f>F8/F9</f>
+      <c r="F7" s="18">
+        <f>E7/E8</f>
         <v>0.34089773317280037</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="10">
-        <f>F6</f>
+      <c r="E8" s="10">
+        <f>E5</f>
         <v>210931517</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="11">
+        <f>(Neraca!E20-Neraca!E45)</f>
+        <v>310279364</v>
+      </c>
+      <c r="F10" s="18">
+        <f>E10/E11</f>
+        <v>0.5953048474442727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="10">
+        <f>Neraca!E20</f>
+        <v>521210881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="11">
+      <c r="E13" s="11">
         <f>Neraca!E45+Neraca!E52</f>
         <v>248070766</v>
       </c>
-      <c r="G11" s="18">
-        <f>F11/F12</f>
+      <c r="F13" s="18">
+        <f>E13/E14</f>
         <v>0.46041854137807464</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="10">
+      <c r="E14" s="10">
         <f>Neraca!E63+Neraca!E64</f>
         <v>538794040</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="11">
+      <c r="E16" s="11">
         <f>Neraca!E54</f>
         <v>248070766</v>
       </c>
-      <c r="G14" s="18">
-        <f>F14/F15</f>
+      <c r="F16" s="18">
+        <f>E16/E17</f>
         <v>0.31193747703308161</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="10">
+      <c r="E17" s="10">
         <f>Neraca!E30</f>
         <v>795257974</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="11">
+      <c r="E19" s="11">
         <f>Neraca!E52</f>
         <v>37139249</v>
       </c>
-      <c r="G17" s="18">
-        <f>F17/F18</f>
+      <c r="F19" s="18">
+        <f>E19/E20</f>
         <v>6.8930326326549565E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="10">
-        <f>F12</f>
+      <c r="E20" s="10">
+        <f>E14</f>
         <v>538794040</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E22" s="11">
         <f>Laba_Rugi!E14</f>
         <v>154895182</v>
       </c>
-      <c r="G20" s="18">
-        <f>F20/F21</f>
+      <c r="F22" s="18">
+        <f>E22/E23</f>
         <v>24.953889770294637</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="12" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E23" s="10">
         <f>-Laba_Rugi!E17</f>
         <v>6207256</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="11">
+      <c r="E25" s="11">
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G23" s="18">
-        <f>F23/F24</f>
+      <c r="F25" s="18">
+        <f>E25/E26</f>
         <v>1.2937318601473087</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="12" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="10">
+      <c r="E26" s="10">
         <f>Neraca!E30</f>
         <v>795257974</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11">
+      <c r="E28" s="11">
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
-      <c r="G26" s="18">
-        <f>F26/F27</f>
+      <c r="F28" s="18">
+        <f>E28/E29</f>
         <v>25.64097869954492</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="12" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="10">
+      <c r="E29" s="10">
         <f>(SUM(Neraca!F10:F13)+SUM(Neraca!E10:E13))/2</f>
         <v>40125246</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="11">
-        <f>F27*360</f>
+      <c r="E31" s="11">
+        <f>E29*360</f>
         <v>14445088560</v>
       </c>
-      <c r="G29" s="18">
-        <f>F29/F30</f>
+      <c r="F31" s="18">
+        <f>E31/E32</f>
         <v>14.04002570332424</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="12" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="10">
+      <c r="E32" s="10">
         <f>Laba_Rugi!E6</f>
         <v>1028850578</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="11">
-        <f>F20</f>
+      <c r="E34" s="11">
+        <f>E22</f>
         <v>154895182</v>
       </c>
-      <c r="G32" s="18">
-        <f>F32/F33</f>
+      <c r="F34" s="18">
+        <f>E34/E35</f>
         <v>0.19477350377375782</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="10">
-        <f>F15</f>
+      <c r="E35" s="10">
+        <f>E17</f>
         <v>795257974</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="11">
+      <c r="E37" s="11">
         <f>Laba_Rugi!E32</f>
         <v>128895612</v>
       </c>
-      <c r="G35" s="18">
-        <f>F35/F36</f>
+      <c r="F37" s="18">
+        <f>E37/E38</f>
         <v>0.16208025095514478</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="10">
-        <f>F33</f>
+      <c r="E38" s="10">
+        <f>E35</f>
         <v>795257974</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="11">
-        <f>F35</f>
+      <c r="E40" s="11">
+        <f>E37</f>
         <v>128895612</v>
       </c>
-      <c r="G38" s="18">
-        <f>F38/F39</f>
+      <c r="F40" s="18">
+        <f>E40/E41</f>
         <v>0.23922984003312286</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="10">
-        <f>F18</f>
+      <c r="E41" s="10">
+        <f>E20</f>
         <v>538794040</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="11">
-        <f>F38</f>
+      <c r="E43" s="11">
+        <f>E40</f>
         <v>128895612</v>
       </c>
-      <c r="G41" s="18">
-        <f>F41/F42</f>
+      <c r="F43" s="18">
+        <f>E43/E44</f>
         <v>0.12528117761333463</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="12" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="10">
-        <f>F23</f>
+      <c r="E44" s="10">
+        <f>E25</f>
         <v>1028850578</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="E46" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="18">
-        <f>G41*G23</f>
+      <c r="F46" s="18">
+        <f>F43*F25</f>
         <v>0.16208025095514478</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="16">
-        <f>G44</f>
+      <c r="E48" s="16">
+        <f>F46</f>
         <v>0.16208025095514478</v>
       </c>
-      <c r="G46" s="18">
-        <f>(F46/F47)</f>
+      <c r="F48" s="18">
+        <f>(E48/E49)</f>
         <v>0.23556035323106458</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="12" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="9">
+      <c r="E49" s="9">
         <f>(1-(Neraca!E54/Neraca!E30))</f>
         <v>0.68806252296691839</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
   <si>
     <t>Kas dan setara kas</t>
   </si>
@@ -303,9 +303,6 @@
     <t>htg. lancar + htg. jk. panjang</t>
   </si>
   <si>
-    <t>htg. lancar + htg. Jk. panjang</t>
-  </si>
-  <si>
     <t>bunga hutang jk. panjang</t>
   </si>
   <si>
@@ -388,6 +385,15 @@
   </si>
   <si>
     <t>jml. aset lancar</t>
+  </si>
+  <si>
+    <t>Debt Ratio</t>
+  </si>
+  <si>
+    <t>Total Liabilitas</t>
+  </si>
+  <si>
+    <t>Total Aset</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -515,6 +521,9 @@
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -880,10 +889,10 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1735,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1764,9 @@
       <c r="A1" t="s">
         <v>78</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
       <c r="C1" s="13" t="s">
         <v>80</v>
       </c>
@@ -1781,6 +1793,9 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
@@ -1807,6 +1822,9 @@
       <c r="A7" t="s">
         <v>85</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
@@ -1833,10 +1851,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="E10" s="11">
         <f>(Neraca!E20-Neraca!E45)</f>
@@ -1849,7 +1870,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="10">
         <f>Neraca!E20</f>
@@ -1860,6 +1881,9 @@
       <c r="A13" t="s">
         <v>86</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
@@ -1869,7 +1893,7 @@
       </c>
       <c r="F13" s="18">
         <f>E13/E14</f>
-        <v>0.46041854137807464</v>
+        <v>0.45335629629704355</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,16 +1901,19 @@
         <v>93</v>
       </c>
       <c r="E14" s="10">
-        <f>Neraca!E63+Neraca!E64</f>
-        <v>538794040</v>
+        <f>Neraca!E69</f>
+        <v>547187208</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="11">
         <f>Neraca!E54</f>
@@ -1910,8 +1937,11 @@
       <c r="A19" t="s">
         <v>88</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
       <c r="C19" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="11">
         <f>Neraca!E52</f>
@@ -1919,7 +1949,7 @@
       </c>
       <c r="F19" s="18">
         <f>E19/E20</f>
-        <v>6.8930326326549565E-2</v>
+        <v>6.7873021256739607E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,13 +1958,16 @@
       </c>
       <c r="E20" s="10">
         <f>E14</f>
-        <v>538794040</v>
+        <v>547187208</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
       <c r="C22" s="13" t="s">
         <v>90</v>
       </c>
@@ -1949,19 +1982,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="10">
-        <f>-Laba_Rugi!E17</f>
+        <f>Laba_Rugi!E17*-1</f>
         <v>6207256</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="E25" s="11">
         <f>Laba_Rugi!E6</f>
@@ -1977,16 +2013,19 @@
         <v>92</v>
       </c>
       <c r="E26" s="10">
-        <f>Neraca!E30</f>
+        <f>E17</f>
         <v>795257974</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="E28" s="11">
         <f>Laba_Rugi!E6</f>
@@ -1999,7 +2038,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="10">
         <f>(SUM(Neraca!F10:F13)+SUM(Neraca!E10:E13))/2</f>
@@ -2008,10 +2047,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="11">
         <f>E29*360</f>
@@ -2024,7 +2066,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10">
         <f>Laba_Rugi!E6</f>
@@ -2033,7 +2075,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>90</v>
@@ -2049,10 +2094,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="10">
         <f>E17</f>
@@ -2061,10 +2106,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="11">
         <f>Laba_Rugi!E32</f>
@@ -2077,10 +2125,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="10">
         <f>E35</f>
@@ -2089,10 +2137,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="11">
         <f>E37</f>
@@ -2100,27 +2151,27 @@
       </c>
       <c r="F40" s="18">
         <f>E40/E41</f>
-        <v>0.23922984003312286</v>
+        <v>0.23556035323106456</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="10">
         <f>E20</f>
-        <v>538794040</v>
+        <v>547187208</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="11">
         <f>E40</f>
@@ -2133,7 +2184,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="10">
         <f>E25</f>
@@ -2142,40 +2193,68 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="E46" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="18">
         <f>F43*F25</f>
         <v>0.16208025095514478</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+    </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="22">
+        <f>Neraca!E54</f>
+        <v>248070766</v>
+      </c>
+      <c r="F48" s="18">
+        <f>E48/E49</f>
+        <v>0.31193747703308161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="17">
+        <f>Neraca!E30</f>
+        <v>795257974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="16">
+      <c r="C51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="16">
         <f>F46</f>
         <v>0.16208025095514478</v>
       </c>
-      <c r="F48" s="18">
-        <f>(E48/E49)</f>
+      <c r="F51" s="18">
+        <f>(E51/E52)</f>
         <v>0.23556035323106458</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="9">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="9">
         <f>(1-(Neraca!E54/Neraca!E30))</f>
         <v>0.68806252296691839</v>
       </c>

--- a/Financial_report.xlsx
+++ b/Financial_report.xlsx
@@ -516,14 +516,14 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,40 +849,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1447,41 +1447,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="21" t="str">
+      <c r="B1" s="22" t="str">
         <f>Neraca!B1</f>
         <v>PT. SEPATU BATA Tbk.</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
@@ -1746,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,12 +2115,12 @@
         <v>104</v>
       </c>
       <c r="E37" s="11">
-        <f>Laba_Rugi!E32</f>
-        <v>128895612</v>
+        <f>Laba_Rugi!E25</f>
+        <v>129519446</v>
       </c>
       <c r="F37" s="18">
         <f>E37/E38</f>
-        <v>0.16208025095514478</v>
+        <v>0.16286469326241551</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="E40" s="11">
         <f>E37</f>
-        <v>128895612</v>
+        <v>129519446</v>
       </c>
       <c r="F40" s="18">
         <f>E40/E41</f>
-        <v>0.23556035323106456</v>
+        <v>0.23670042739741826</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,11 +2175,11 @@
       </c>
       <c r="E43" s="11">
         <f>E40</f>
-        <v>128895612</v>
+        <v>129519446</v>
       </c>
       <c r="F43" s="18">
         <f>E43/E44</f>
-        <v>0.12528117761333463</v>
+        <v>0.12588751833310435</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F46" s="18">
         <f>F43*F25</f>
-        <v>0.16208025095514478</v>
+        <v>0.16286469326241551</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
       <c r="C48" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="20">
         <f>Neraca!E54</f>
         <v>248070766</v>
       </c>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="E51" s="16">
         <f>F46</f>
-        <v>0.16208025095514478</v>
+        <v>0.16286469326241551</v>
       </c>
       <c r="F51" s="18">
         <f>(E51/E52)</f>
-        <v>0.23556035323106458</v>
+        <v>0.23670042739741828</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
